--- a/dataAnalysis/test results qs.xlsx
+++ b/dataAnalysis/test results qs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ITU\Kand\2.Semester\AlgorithmDesignProject\quadsketch\dataAnalysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A316BCF-031A-466D-B401-FC46DA0EF1D8}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB372E20-0C02-42D2-8C06-1500BC2BB6D4}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6585" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -600,10 +600,8 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -753,10 +751,8 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -1206,10 +1202,8 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -2805,7 +2799,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
+        <c:tickLblPos val="low"/>
         <c:spPr>
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -10468,7 +10462,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C5DF786-259B-45AA-8FC1-8E62C49324A3}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
       <selection activeCell="P35" sqref="P35"/>
     </sheetView>
   </sheetViews>

--- a/dataAnalysis/test results qs.xlsx
+++ b/dataAnalysis/test results qs.xlsx
@@ -8,24 +8,27 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ITU\Kand\2.Semester\AlgorithmDesignProject\quadsketch\dataAnalysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB372E20-0C02-42D2-8C06-1500BC2BB6D4}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C4CE5C9-97A5-4FBF-B84B-25049F4A0308}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6585" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6585" firstSheet="4" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="SIFTGRID" sheetId="2" r:id="rId2"/>
     <sheet name="SIFTQS" sheetId="8" r:id="rId3"/>
     <sheet name="SIFTQSR" sheetId="9" r:id="rId4"/>
-    <sheet name="MNIST" sheetId="3" r:id="rId5"/>
-    <sheet name="SiftGraphs" sheetId="7" r:id="rId6"/>
+    <sheet name="SiftGraphs" sheetId="7" r:id="rId5"/>
+    <sheet name="MNISTGRID" sheetId="10" r:id="rId6"/>
+    <sheet name="MNISTQS" sheetId="11" r:id="rId7"/>
+    <sheet name="MNISTQSR" sheetId="12" r:id="rId8"/>
+    <sheet name="MNISTGRAPHS" sheetId="3" r:id="rId9"/>
   </sheets>
   <calcPr calcId="179017"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="26">
   <si>
     <t>Accuracy</t>
   </si>
@@ -156,7 +159,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
@@ -165,6 +168,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -183,329 +187,6 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="1"/>
-  <c:style val="2"/>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr lvl="0">
-              <a:defRPr b="0"/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>MNIST</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>MNIST!$D$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>grid</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="9525" cmpd="sng">
-              <a:solidFill>
-                <a:srgbClr val="3366CC"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="7"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="3366CC"/>
-              </a:solidFill>
-              <a:ln cmpd="sng">
-                <a:solidFill>
-                  <a:srgbClr val="3366CC"/>
-                </a:solidFill>
-              </a:ln>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>MNIST!$F$2:$F$16</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.5849599999999999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.5849600000000001</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3.5849600000000001</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4.5849599999999997</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>5.5849599999999997</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>6.5849599999999997</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>7.5849599999999997</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>8</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>MNIST!$D$2:$D$16</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
-                <c:pt idx="0">
-                  <c:v>0.40949999999999998</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.52170000000000005</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.63439999999999996</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.76080000000000003</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.82250000000000001</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.88180000000000003</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.90880000000000005</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.9425</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.96040000000000003</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.97230000000000005</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.97960000000000003</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.98409999999999997</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.98919999999999997</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.99309999999999998</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.99560000000000004</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-0CF5-443C-9FE1-10C6D79C9227}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="539166"/>
-        <c:axId val="943806606"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="539166"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr lvl="0">
-                  <a:defRPr b="0"/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Bits/coordinate</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="cross"/>
-        <c:minorTickMark val="cross"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr lvl="0">
-              <a:defRPr b="0"/>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="943806606"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="1"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="943806606"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="B7B7B7"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:minorGridlines>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="CCCCCC"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:minorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr lvl="0">
-                  <a:defRPr b="0"/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Accuracy</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="cross"/>
-        <c:minorTickMark val="cross"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="47625">
-            <a:noFill/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr lvl="0">
-              <a:defRPr b="0"/>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="539166"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="zero"/>
-    <c:showDLblsOverMax val="1"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1768,7 +1449,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -3038,6 +2719,1785 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>MNIST Accuracy</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>MNISTGRID!$A$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Grid</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>MNISTGRID!$F$3:$F$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.5849599999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.5849600000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.5849600000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.5849599999999997</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.5849599999999997</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6.5849599999999997</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7.5849599999999997</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>MNISTGRID!$D$3:$D$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>0.40949999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.52170000000000005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.63439999999999996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.76080000000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.82250000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.88180000000000003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.90880000000000005</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.9425</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.96040000000000003</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.97230000000000005</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.97960000000000003</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.98409999999999997</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.98919999999999997</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.99309999999999998</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.99560000000000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E65C-4D76-BA37-BEFA2011F052}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>MNISTQS!$A$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>QS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>MNISTQS!$E$3:$E$47</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="45"/>
+                <c:pt idx="0">
+                  <c:v>0.98453233418367303</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.5693971088435299</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.6830984268707401</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.07006673044217</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.3751527636054401</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.4065742346938701</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.5214238945578198</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.5314000850340102</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.6023386054421702</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.6367163690476101</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.6764579081632598</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.7402514030612202</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.9591506802721002</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.2763140093537402</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.3072682397959099</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.4135526147959099</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.4289536139455699</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.5023690476190401</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.5460042091836699</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.5867675595238002</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3.8595829081632602</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4.1748502338435296</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4.2025028911564597</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4.2976254676870704</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4.3355353741496598</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>4.4002201955782301</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>4.4521295918367301</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>4.7600369047618996</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>5.0786507865646202</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>5.09739336734693</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>5.1985314625850298</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>5.24683452380952</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>5.3043103741496598</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>5.6658598214285698</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>5.98713769132653</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>6.0162187500000002</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>6.1127836309523804</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>6.1466073129251697</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>6.5652115433673401</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>6.8888741071428496</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>6.9056609693877498</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>7.0085897534013597</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>7.4614302508503396</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>7.8272470238095204</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>7.91796702806122</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>MNISTQS!$F$3:$F$47</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="45"/>
+                <c:pt idx="0">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.51719999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.71199999999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.52370000000000005</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.51039999999999996</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.76939999999999997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.86309999999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.49249999999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.4728</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.52649999999999997</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.51910000000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.48809999999999998</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.76329999999999998</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.75409999999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.89129999999999998</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.93310000000000004</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.76600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.75060000000000004</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.75860000000000005</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.77070000000000005</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.89080000000000004</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.8911</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.94750000000000001</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.96409999999999996</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.88790000000000002</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.89259999999999995</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.88980000000000004</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.94669999999999999</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.94810000000000005</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.97489999999999999</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.98240000000000005</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.94550000000000001</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.95040000000000002</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.97260000000000002</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.9748</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.98760000000000003</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.99170000000000003</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.97319999999999995</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.98699999999999999</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.98619999999999997</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.99390000000000001</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.99590000000000001</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.99399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.99650000000000005</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.99880000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-E65C-4D76-BA37-BEFA2011F052}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1834288911"/>
+        <c:axId val="1998561215"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1834288911"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>bits/coord</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1998561215"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1998561215"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>accuracy</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1834288911"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>MNIST distortion</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>MNISTGRID!$A$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Grid</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>MNISTGRID!$F$3:$F$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.5849599999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.5849600000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.5849600000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.5849599999999997</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.5849599999999997</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6.5849599999999997</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7.5849599999999997</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>MNISTGRID!$G$3:$G$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>6.6820000000000102E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.7530000000000063E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.0780000000000021E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.2100000000000506E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.229999999999956E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.7799999999998928E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.6000000000007191E-4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.6999999999998145E-4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.7000000000000348E-4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.9999999999923475E-5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.0000000000105516E-5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.9999999999974492E-5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.0000000000065512E-5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6E65-490B-94B8-57D65BA0AF53}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>MNISTQS!$A$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>QS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>MNISTQS!$E$3:$E$47</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="45"/>
+                <c:pt idx="0">
+                  <c:v>0.98453233418367303</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.5693971088435299</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.6830984268707401</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.07006673044217</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.3751527636054401</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.4065742346938701</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.5214238945578198</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.5314000850340102</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.6023386054421702</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.6367163690476101</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.6764579081632598</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.7402514030612202</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.9591506802721002</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.2763140093537402</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.3072682397959099</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.4135526147959099</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.4289536139455699</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.5023690476190401</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.5460042091836699</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.5867675595238002</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3.8595829081632602</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4.1748502338435296</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4.2025028911564597</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4.2976254676870704</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4.3355353741496598</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>4.4002201955782301</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>4.4521295918367301</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>4.7600369047618996</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>5.0786507865646202</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>5.09739336734693</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>5.1985314625850298</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>5.24683452380952</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>5.3043103741496598</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>5.6658598214285698</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>5.98713769132653</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>6.0162187500000002</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>6.1127836309523804</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>6.1466073129251697</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>6.5652115433673401</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>6.8888741071428496</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>6.9056609693877498</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>7.0085897534013597</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>7.4614302508503396</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>7.8272470238095204</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>7.91796702806122</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>MNISTQS!$K$3:$K$47</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="45"/>
+                <c:pt idx="0">
+                  <c:v>4.0370000000000017E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.7449999999999983E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.1260000000000048E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.6720000000000086E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.844000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.2399999999999132E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.2500000000000853E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.3029999999999902E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.7919999999999963E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.7230000000000096E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.7560000000000038E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.4999999999999929E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7.7400000000000801E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8.4200000000000941E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.3799999999999368E-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5.3999999999998494E-4</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>7.9000000000000181E-3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8.3699999999999886E-3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>8.2899999999999086E-3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>7.2000000000000952E-3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.4400000000001079E-3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.4700000000000824E-3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3.2000000000009798E-4</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.4000000000002899E-4</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.5099999999999003E-3</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.4099999999999113E-3</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.4600000000000168E-3</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3.2000000000009798E-4</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3.1000000000003247E-4</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>8.0000000000080007E-5</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2.9999999999974492E-5</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3.5000000000007248E-4</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2.8999999999990145E-4</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>8.0000000000080007E-5</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>8.0000000000080007E-5</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.9999999999908979E-5</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.0000000000065512E-5</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>8.9999999999923475E-5</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.9999999999908979E-5</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.9999999999908979E-5</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-6E65-490B-94B8-57D65BA0AF53}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1777912031"/>
+        <c:axId val="1713882511"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1777912031"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>bits/coord</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1713882511"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1713882511"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>distortion</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1777912031"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -3079,6 +4539,86 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -4150,43 +5690,1039 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="5715000" cy="3533775"/>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1" title="Chart">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData fLocksWithSheet="0"/>
-  </xdr:oneCellAnchor>
-</xdr:wsDr>
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -4243,6 +6779,83 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6E919E9-2382-4244-8577-D8D2C71E7EA2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>150018</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>69055</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{98F012BD-1BE5-4868-8572-EE7EE1B7490E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>116680</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>150018</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>604837</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>52388</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86D5C695-5440-4E33-85FB-F6DDD1E7FFBF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6293,11 +8906,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4D62368-517F-463B-B6D5-AE88D0024B2F}">
   <dimension ref="A1:K67"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="4" max="4" width="12.1328125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
@@ -8688,11 +11304,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66A37EE4-E864-4F20-A190-4F356C75E790}">
   <dimension ref="A1:L34"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="5" max="5" width="12.1328125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
@@ -9994,475 +12613,10 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <dimension ref="A1:F32"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-  <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="1">
-        <v>2</v>
-      </c>
-      <c r="D2" s="1">
-        <v>0.40949999999999998</v>
-      </c>
-      <c r="E2" s="1">
-        <v>1.0668200000000001</v>
-      </c>
-      <c r="F2" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="1">
-        <v>3</v>
-      </c>
-      <c r="D3" s="1">
-        <v>0.52170000000000005</v>
-      </c>
-      <c r="E3" s="1">
-        <v>1.0375300000000001</v>
-      </c>
-      <c r="F3" s="1">
-        <v>1.5849599999999999</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="1">
-        <v>4</v>
-      </c>
-      <c r="D4" s="1">
-        <v>0.63439999999999996</v>
-      </c>
-      <c r="E4" s="1">
-        <v>1.02078</v>
-      </c>
-      <c r="F4" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="1">
-        <v>6</v>
-      </c>
-      <c r="D5" s="1">
-        <v>0.76080000000000003</v>
-      </c>
-      <c r="E5" s="1">
-        <v>1.0082100000000001</v>
-      </c>
-      <c r="F5" s="1">
-        <v>2.5849600000000001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="1">
-        <v>8</v>
-      </c>
-      <c r="D6" s="1">
-        <v>0.82250000000000001</v>
-      </c>
-      <c r="E6" s="1">
-        <v>1.00423</v>
-      </c>
-      <c r="F6" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="1">
-        <v>12</v>
-      </c>
-      <c r="D7" s="1">
-        <v>0.88180000000000003</v>
-      </c>
-      <c r="E7" s="1">
-        <v>1.0017799999999999</v>
-      </c>
-      <c r="F7" s="1">
-        <v>3.5849600000000001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="1">
-        <v>16</v>
-      </c>
-      <c r="D8" s="1">
-        <v>0.90880000000000005</v>
-      </c>
-      <c r="E8" s="1">
-        <v>1.0009600000000001</v>
-      </c>
-      <c r="F8" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="1">
-        <v>24</v>
-      </c>
-      <c r="D9" s="1">
-        <v>0.9425</v>
-      </c>
-      <c r="E9" s="1">
-        <v>1.00037</v>
-      </c>
-      <c r="F9" s="1">
-        <v>4.5849599999999997</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="1">
-        <v>32</v>
-      </c>
-      <c r="D10" s="1">
-        <v>0.96040000000000003</v>
-      </c>
-      <c r="E10" s="1">
-        <v>1.00017</v>
-      </c>
-      <c r="F10" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" s="1">
-        <v>48</v>
-      </c>
-      <c r="D11" s="1">
-        <v>0.97230000000000005</v>
-      </c>
-      <c r="E11" s="1">
-        <v>1.0000899999999999</v>
-      </c>
-      <c r="F11" s="1">
-        <v>5.5849599999999997</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" s="1">
-        <v>64</v>
-      </c>
-      <c r="D12" s="1">
-        <v>0.97960000000000003</v>
-      </c>
-      <c r="E12" s="1">
-        <v>1.0000500000000001</v>
-      </c>
-      <c r="F12" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" s="1">
-        <v>96</v>
-      </c>
-      <c r="D13" s="1">
-        <v>0.98409999999999997</v>
-      </c>
-      <c r="E13" s="1">
-        <v>1.00003</v>
-      </c>
-      <c r="F13" s="1">
-        <v>6.5849599999999997</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14" s="1">
-        <v>128</v>
-      </c>
-      <c r="D14" s="1">
-        <v>0.98919999999999997</v>
-      </c>
-      <c r="E14" s="1">
-        <v>1.0000100000000001</v>
-      </c>
-      <c r="F14" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15" s="1">
-        <v>192</v>
-      </c>
-      <c r="D15" s="1">
-        <v>0.99309999999999998</v>
-      </c>
-      <c r="E15" s="1">
-        <v>1</v>
-      </c>
-      <c r="F15" s="1">
-        <v>7.5849599999999997</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C16" s="1">
-        <v>256</v>
-      </c>
-      <c r="D16" s="1">
-        <v>0.99560000000000004</v>
-      </c>
-      <c r="E16" s="1">
-        <v>1</v>
-      </c>
-      <c r="F16" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-    </row>
-    <row r="18" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-    </row>
-    <row r="19" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-    </row>
-    <row r="20" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-    </row>
-    <row r="21" spans="1:6" ht="12.75" x14ac:dyDescent="0.35">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-    </row>
-    <row r="22" spans="1:6" ht="12.75" x14ac:dyDescent="0.35">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-    </row>
-    <row r="23" spans="1:6" ht="12.75" x14ac:dyDescent="0.35">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-    </row>
-    <row r="24" spans="1:6" ht="12.75" x14ac:dyDescent="0.35">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-    </row>
-    <row r="25" spans="1:6" ht="12.75" x14ac:dyDescent="0.35">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-    </row>
-    <row r="26" spans="1:6" ht="12.75" x14ac:dyDescent="0.35">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-    </row>
-    <row r="27" spans="1:6" ht="12.75" x14ac:dyDescent="0.35">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-    </row>
-    <row r="28" spans="1:6" ht="12.75" x14ac:dyDescent="0.35">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-    </row>
-    <row r="29" spans="1:6" ht="12.75" x14ac:dyDescent="0.35">
-      <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-    </row>
-    <row r="30" spans="1:6" ht="12.75" x14ac:dyDescent="0.35">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-    </row>
-    <row r="31" spans="1:6" ht="12.75" x14ac:dyDescent="0.35">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-    </row>
-    <row r="32" spans="1:6" ht="12.75" x14ac:dyDescent="0.35">
-      <c r="A32" s="1"/>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C5DF786-259B-45AA-8FC1-8E62C49324A3}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P35" sqref="P35"/>
     </sheetView>
   </sheetViews>
@@ -10471,4 +12625,2433 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F90828DB-A9C1-41FC-943D-23DA7BE67CA9}">
+  <dimension ref="A1:G17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="14.19921875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="7">
+        <v>2</v>
+      </c>
+      <c r="D3" s="7">
+        <v>0.40949999999999998</v>
+      </c>
+      <c r="E3" s="7">
+        <v>1.0668200000000001</v>
+      </c>
+      <c r="F3" s="7">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <f>ABS(E3-1)</f>
+        <v>6.6820000000000102E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="7">
+        <v>3</v>
+      </c>
+      <c r="D4" s="7">
+        <v>0.52170000000000005</v>
+      </c>
+      <c r="E4" s="7">
+        <v>1.0375300000000001</v>
+      </c>
+      <c r="F4" s="7">
+        <v>1.5849599999999999</v>
+      </c>
+      <c r="G4">
+        <f t="shared" ref="G4:G17" si="0">ABS(E4-1)</f>
+        <v>3.7530000000000063E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="7">
+        <v>4</v>
+      </c>
+      <c r="D5" s="7">
+        <v>0.63439999999999996</v>
+      </c>
+      <c r="E5" s="7">
+        <v>1.02078</v>
+      </c>
+      <c r="F5" s="7">
+        <v>2</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="0"/>
+        <v>2.0780000000000021E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="7">
+        <v>6</v>
+      </c>
+      <c r="D6" s="7">
+        <v>0.76080000000000003</v>
+      </c>
+      <c r="E6" s="7">
+        <v>1.0082100000000001</v>
+      </c>
+      <c r="F6" s="7">
+        <v>2.5849600000000001</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>8.2100000000000506E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="7">
+        <v>8</v>
+      </c>
+      <c r="D7" s="7">
+        <v>0.82250000000000001</v>
+      </c>
+      <c r="E7" s="7">
+        <v>1.00423</v>
+      </c>
+      <c r="F7" s="7">
+        <v>3</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>4.229999999999956E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="7">
+        <v>12</v>
+      </c>
+      <c r="D8" s="7">
+        <v>0.88180000000000003</v>
+      </c>
+      <c r="E8" s="7">
+        <v>1.0017799999999999</v>
+      </c>
+      <c r="F8" s="7">
+        <v>3.5849600000000001</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="0"/>
+        <v>1.7799999999998928E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="7">
+        <v>16</v>
+      </c>
+      <c r="D9" s="7">
+        <v>0.90880000000000005</v>
+      </c>
+      <c r="E9" s="7">
+        <v>1.0009600000000001</v>
+      </c>
+      <c r="F9" s="7">
+        <v>4</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="0"/>
+        <v>9.6000000000007191E-4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="7">
+        <v>24</v>
+      </c>
+      <c r="D10" s="7">
+        <v>0.9425</v>
+      </c>
+      <c r="E10" s="7">
+        <v>1.00037</v>
+      </c>
+      <c r="F10" s="7">
+        <v>4.5849599999999997</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="0"/>
+        <v>3.6999999999998145E-4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A11" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="7">
+        <v>32</v>
+      </c>
+      <c r="D11" s="7">
+        <v>0.96040000000000003</v>
+      </c>
+      <c r="E11" s="7">
+        <v>1.00017</v>
+      </c>
+      <c r="F11" s="7">
+        <v>5</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="0"/>
+        <v>1.7000000000000348E-4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="7">
+        <v>48</v>
+      </c>
+      <c r="D12" s="7">
+        <v>0.97230000000000005</v>
+      </c>
+      <c r="E12" s="7">
+        <v>1.0000899999999999</v>
+      </c>
+      <c r="F12" s="7">
+        <v>5.5849599999999997</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="0"/>
+        <v>8.9999999999923475E-5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A13" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="7">
+        <v>64</v>
+      </c>
+      <c r="D13" s="7">
+        <v>0.97960000000000003</v>
+      </c>
+      <c r="E13" s="7">
+        <v>1.0000500000000001</v>
+      </c>
+      <c r="F13" s="7">
+        <v>6</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="0"/>
+        <v>5.0000000000105516E-5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A14" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="7">
+        <v>96</v>
+      </c>
+      <c r="D14" s="7">
+        <v>0.98409999999999997</v>
+      </c>
+      <c r="E14" s="7">
+        <v>1.00003</v>
+      </c>
+      <c r="F14" s="7">
+        <v>6.5849599999999997</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="0"/>
+        <v>2.9999999999974492E-5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="7">
+        <v>128</v>
+      </c>
+      <c r="D15" s="7">
+        <v>0.98919999999999997</v>
+      </c>
+      <c r="E15" s="7">
+        <v>1.0000100000000001</v>
+      </c>
+      <c r="F15" s="7">
+        <v>7</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="0"/>
+        <v>1.0000000000065512E-5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A16" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="7">
+        <v>192</v>
+      </c>
+      <c r="D16" s="7">
+        <v>0.99309999999999998</v>
+      </c>
+      <c r="E16" s="7">
+        <v>1</v>
+      </c>
+      <c r="F16" s="7">
+        <v>7.5849599999999997</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A17" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="7">
+        <v>256</v>
+      </c>
+      <c r="D17" s="7">
+        <v>0.99560000000000004</v>
+      </c>
+      <c r="E17" s="7">
+        <v>1</v>
+      </c>
+      <c r="F17" s="7">
+        <v>8</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A3:G17">
+    <sortCondition ref="F3:F17"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BA1C8BC-7FA6-4104-ACC3-7008C8C5CDA5}">
+  <dimension ref="A1:K47"/>
+  <sheetViews>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="4" max="4" width="14.19921875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.59765625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A2" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A3" s="8">
+        <v>46312401</v>
+      </c>
+      <c r="B3" s="7">
+        <v>2</v>
+      </c>
+      <c r="C3" s="7">
+        <v>3</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="7">
+        <v>0.98453233418367303</v>
+      </c>
+      <c r="F3" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="G3" s="7">
+        <v>1.04037</v>
+      </c>
+      <c r="H3" s="7">
+        <v>784</v>
+      </c>
+      <c r="I3" s="7">
+        <v>0.27902700000000003</v>
+      </c>
+      <c r="J3" s="7">
+        <v>16</v>
+      </c>
+      <c r="K3">
+        <f>ABS(G3-1)</f>
+        <v>4.0370000000000017E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A4" s="8">
+        <v>73824440</v>
+      </c>
+      <c r="B4" s="7">
+        <v>2</v>
+      </c>
+      <c r="C4" s="7">
+        <v>4</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="7">
+        <v>1.5693971088435299</v>
+      </c>
+      <c r="F4" s="7">
+        <v>0.51719999999999999</v>
+      </c>
+      <c r="G4" s="7">
+        <v>1.03745</v>
+      </c>
+      <c r="H4" s="7">
+        <v>784</v>
+      </c>
+      <c r="I4" s="7">
+        <v>0.27902700000000003</v>
+      </c>
+      <c r="J4" s="7">
+        <v>16</v>
+      </c>
+      <c r="K4">
+        <f t="shared" ref="K4:K47" si="0">ABS(G4-1)</f>
+        <v>3.7449999999999983E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A5" s="8">
+        <v>79172950</v>
+      </c>
+      <c r="B5" s="7">
+        <v>3</v>
+      </c>
+      <c r="C5" s="7">
+        <v>4</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="7">
+        <v>1.6830984268707401</v>
+      </c>
+      <c r="F5" s="7">
+        <v>0.71199999999999997</v>
+      </c>
+      <c r="G5" s="7">
+        <v>1.01126</v>
+      </c>
+      <c r="H5" s="7">
+        <v>784</v>
+      </c>
+      <c r="I5" s="7">
+        <v>0.27902700000000003</v>
+      </c>
+      <c r="J5" s="7">
+        <v>16</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="0"/>
+        <v>1.1260000000000048E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A6" s="8">
+        <v>97375939</v>
+      </c>
+      <c r="B6" s="7">
+        <v>2</v>
+      </c>
+      <c r="C6" s="7">
+        <v>5</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="7">
+        <v>2.07006673044217</v>
+      </c>
+      <c r="F6" s="7">
+        <v>0.52370000000000005</v>
+      </c>
+      <c r="G6" s="7">
+        <v>1.0367200000000001</v>
+      </c>
+      <c r="H6" s="7">
+        <v>784</v>
+      </c>
+      <c r="I6" s="7">
+        <v>0.27902700000000003</v>
+      </c>
+      <c r="J6" s="7">
+        <v>16</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="0"/>
+        <v>3.6720000000000086E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A7" s="8">
+        <v>111727186</v>
+      </c>
+      <c r="B7" s="7">
+        <v>2</v>
+      </c>
+      <c r="C7" s="7">
+        <v>6</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="7">
+        <v>2.3751527636054401</v>
+      </c>
+      <c r="F7" s="7">
+        <v>0.51039999999999996</v>
+      </c>
+      <c r="G7" s="7">
+        <v>1.03844</v>
+      </c>
+      <c r="H7" s="7">
+        <v>784</v>
+      </c>
+      <c r="I7" s="7">
+        <v>0.27902700000000003</v>
+      </c>
+      <c r="J7" s="7">
+        <v>16</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="0"/>
+        <v>3.844000000000003E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A8" s="8">
+        <v>113205252</v>
+      </c>
+      <c r="B8" s="7">
+        <v>3</v>
+      </c>
+      <c r="C8" s="7">
+        <v>5</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="7">
+        <v>2.4065742346938701</v>
+      </c>
+      <c r="F8" s="7">
+        <v>0.76939999999999997</v>
+      </c>
+      <c r="G8" s="7">
+        <v>1.0072399999999999</v>
+      </c>
+      <c r="H8" s="7">
+        <v>784</v>
+      </c>
+      <c r="I8" s="7">
+        <v>0.27902700000000003</v>
+      </c>
+      <c r="J8" s="7">
+        <v>16</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="0"/>
+        <v>7.2399999999999132E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A9" s="8">
+        <v>118607780</v>
+      </c>
+      <c r="B9" s="7">
+        <v>4</v>
+      </c>
+      <c r="C9" s="7">
+        <v>5</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="7">
+        <v>2.5214238945578198</v>
+      </c>
+      <c r="F9" s="7">
+        <v>0.86309999999999998</v>
+      </c>
+      <c r="G9" s="7">
+        <v>1.0022500000000001</v>
+      </c>
+      <c r="H9" s="7">
+        <v>784</v>
+      </c>
+      <c r="I9" s="7">
+        <v>0.27902700000000003</v>
+      </c>
+      <c r="J9" s="7">
+        <v>16</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="0"/>
+        <v>2.2500000000000853E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A10" s="8">
+        <v>119077060</v>
+      </c>
+      <c r="B10" s="7">
+        <v>2</v>
+      </c>
+      <c r="C10" s="7">
+        <v>7</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="7">
+        <v>2.5314000850340102</v>
+      </c>
+      <c r="F10" s="7">
+        <v>0.49249999999999999</v>
+      </c>
+      <c r="G10" s="7">
+        <v>1.0430299999999999</v>
+      </c>
+      <c r="H10" s="7">
+        <v>784</v>
+      </c>
+      <c r="I10" s="7">
+        <v>0.27902700000000003</v>
+      </c>
+      <c r="J10" s="7">
+        <v>16</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="0"/>
+        <v>4.3029999999999902E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A11" s="8">
+        <v>122414008</v>
+      </c>
+      <c r="B11" s="7">
+        <v>2</v>
+      </c>
+      <c r="C11" s="7">
+        <v>8</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="7">
+        <v>2.6023386054421702</v>
+      </c>
+      <c r="F11" s="7">
+        <v>0.4728</v>
+      </c>
+      <c r="G11" s="7">
+        <v>1.04792</v>
+      </c>
+      <c r="H11" s="7">
+        <v>784</v>
+      </c>
+      <c r="I11" s="7">
+        <v>0.27902700000000003</v>
+      </c>
+      <c r="J11" s="7">
+        <v>16</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="0"/>
+        <v>4.7919999999999963E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A12" s="8">
+        <v>124031138</v>
+      </c>
+      <c r="B12" s="7">
+        <v>2</v>
+      </c>
+      <c r="C12" s="7">
+        <v>9</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="7">
+        <v>2.6367163690476101</v>
+      </c>
+      <c r="F12" s="7">
+        <v>0.52649999999999997</v>
+      </c>
+      <c r="G12" s="7">
+        <v>1.0372300000000001</v>
+      </c>
+      <c r="H12" s="7">
+        <v>784</v>
+      </c>
+      <c r="I12" s="7">
+        <v>0.27902700000000003</v>
+      </c>
+      <c r="J12" s="7">
+        <v>16</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="0"/>
+        <v>3.7230000000000096E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A13" s="8">
+        <v>125900580</v>
+      </c>
+      <c r="B13" s="7">
+        <v>2</v>
+      </c>
+      <c r="C13" s="7">
+        <v>10</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" s="7">
+        <v>2.6764579081632598</v>
+      </c>
+      <c r="F13" s="7">
+        <v>0.51910000000000001</v>
+      </c>
+      <c r="G13" s="7">
+        <v>1.03756</v>
+      </c>
+      <c r="H13" s="7">
+        <v>784</v>
+      </c>
+      <c r="I13" s="7">
+        <v>0.27902700000000003</v>
+      </c>
+      <c r="J13" s="7">
+        <v>16</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="0"/>
+        <v>3.7560000000000038E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A14" s="8">
+        <v>128901426</v>
+      </c>
+      <c r="B14" s="7">
+        <v>2</v>
+      </c>
+      <c r="C14" s="7">
+        <v>11</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" s="7">
+        <v>2.7402514030612202</v>
+      </c>
+      <c r="F14" s="7">
+        <v>0.48809999999999998</v>
+      </c>
+      <c r="G14" s="7">
+        <v>1.0449999999999999</v>
+      </c>
+      <c r="H14" s="7">
+        <v>784</v>
+      </c>
+      <c r="I14" s="7">
+        <v>0.27902700000000003</v>
+      </c>
+      <c r="J14" s="7">
+        <v>16</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="0"/>
+        <v>4.4999999999999929E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A15" s="8">
+        <v>139198448</v>
+      </c>
+      <c r="B15" s="7">
+        <v>3</v>
+      </c>
+      <c r="C15" s="7">
+        <v>6</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" s="7">
+        <v>2.9591506802721002</v>
+      </c>
+      <c r="F15" s="7">
+        <v>0.76329999999999998</v>
+      </c>
+      <c r="G15" s="7">
+        <v>1.0077400000000001</v>
+      </c>
+      <c r="H15" s="7">
+        <v>784</v>
+      </c>
+      <c r="I15" s="7">
+        <v>0.27902700000000003</v>
+      </c>
+      <c r="J15" s="7">
+        <v>16</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="0"/>
+        <v>7.7400000000000801E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A16" s="8">
+        <v>154117811</v>
+      </c>
+      <c r="B16" s="7">
+        <v>3</v>
+      </c>
+      <c r="C16" s="7">
+        <v>7</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" s="7">
+        <v>3.2763140093537402</v>
+      </c>
+      <c r="F16" s="7">
+        <v>0.75409999999999999</v>
+      </c>
+      <c r="G16" s="7">
+        <v>1.0084200000000001</v>
+      </c>
+      <c r="H16" s="7">
+        <v>784</v>
+      </c>
+      <c r="I16" s="7">
+        <v>0.27902700000000003</v>
+      </c>
+      <c r="J16" s="7">
+        <v>16</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="0"/>
+        <v>8.4200000000000941E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A17" s="8">
+        <v>155573898</v>
+      </c>
+      <c r="B17" s="7">
+        <v>4</v>
+      </c>
+      <c r="C17" s="7">
+        <v>6</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17" s="7">
+        <v>3.3072682397959099</v>
+      </c>
+      <c r="F17" s="7">
+        <v>0.89129999999999998</v>
+      </c>
+      <c r="G17" s="7">
+        <v>1.0013799999999999</v>
+      </c>
+      <c r="H17" s="7">
+        <v>784</v>
+      </c>
+      <c r="I17" s="7">
+        <v>0.27902700000000003</v>
+      </c>
+      <c r="J17" s="7">
+        <v>16</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="0"/>
+        <v>1.3799999999999368E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A18" s="8">
+        <v>160573515</v>
+      </c>
+      <c r="B18" s="7">
+        <v>5</v>
+      </c>
+      <c r="C18" s="7">
+        <v>6</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E18" s="7">
+        <v>3.4135526147959099</v>
+      </c>
+      <c r="F18" s="7">
+        <v>0.93310000000000004</v>
+      </c>
+      <c r="G18" s="7">
+        <v>1.00054</v>
+      </c>
+      <c r="H18" s="7">
+        <v>784</v>
+      </c>
+      <c r="I18" s="7">
+        <v>0.27902700000000003</v>
+      </c>
+      <c r="J18" s="7">
+        <v>16</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="0"/>
+        <v>5.3999999999998494E-4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A19" s="8">
+        <v>161297978</v>
+      </c>
+      <c r="B19" s="7">
+        <v>3</v>
+      </c>
+      <c r="C19" s="7">
+        <v>8</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E19" s="7">
+        <v>3.4289536139455699</v>
+      </c>
+      <c r="F19" s="7">
+        <v>0.76600000000000001</v>
+      </c>
+      <c r="G19" s="7">
+        <v>1.0079</v>
+      </c>
+      <c r="H19" s="7">
+        <v>784</v>
+      </c>
+      <c r="I19" s="7">
+        <v>0.27902700000000003</v>
+      </c>
+      <c r="J19" s="7">
+        <v>16</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="0"/>
+        <v>7.9000000000000181E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A20" s="8">
+        <v>164751440</v>
+      </c>
+      <c r="B20" s="7">
+        <v>3</v>
+      </c>
+      <c r="C20" s="7">
+        <v>9</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E20" s="7">
+        <v>3.5023690476190401</v>
+      </c>
+      <c r="F20" s="7">
+        <v>0.75060000000000004</v>
+      </c>
+      <c r="G20" s="7">
+        <v>1.00837</v>
+      </c>
+      <c r="H20" s="7">
+        <v>784</v>
+      </c>
+      <c r="I20" s="7">
+        <v>0.27902700000000003</v>
+      </c>
+      <c r="J20" s="7">
+        <v>16</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="0"/>
+        <v>8.3699999999999886E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A21" s="8">
+        <v>166804038</v>
+      </c>
+      <c r="B21" s="7">
+        <v>3</v>
+      </c>
+      <c r="C21" s="7">
+        <v>10</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E21" s="7">
+        <v>3.5460042091836699</v>
+      </c>
+      <c r="F21" s="7">
+        <v>0.75860000000000005</v>
+      </c>
+      <c r="G21" s="7">
+        <v>1.0082899999999999</v>
+      </c>
+      <c r="H21" s="7">
+        <v>784</v>
+      </c>
+      <c r="I21" s="7">
+        <v>0.27902700000000003</v>
+      </c>
+      <c r="J21" s="7">
+        <v>16</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="0"/>
+        <v>8.2899999999999086E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A22" s="8">
+        <v>168721546</v>
+      </c>
+      <c r="B22" s="7">
+        <v>3</v>
+      </c>
+      <c r="C22" s="7">
+        <v>11</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E22" s="7">
+        <v>3.5867675595238002</v>
+      </c>
+      <c r="F22" s="7">
+        <v>0.77070000000000005</v>
+      </c>
+      <c r="G22" s="7">
+        <v>1.0072000000000001</v>
+      </c>
+      <c r="H22" s="7">
+        <v>784</v>
+      </c>
+      <c r="I22" s="7">
+        <v>0.27902700000000003</v>
+      </c>
+      <c r="J22" s="7">
+        <v>16</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="0"/>
+        <v>7.2000000000000952E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A23" s="8">
+        <v>181554780</v>
+      </c>
+      <c r="B23" s="7">
+        <v>4</v>
+      </c>
+      <c r="C23" s="7">
+        <v>7</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E23" s="7">
+        <v>3.8595829081632602</v>
+      </c>
+      <c r="F23" s="7">
+        <v>0.89080000000000004</v>
+      </c>
+      <c r="G23" s="7">
+        <v>1.0014400000000001</v>
+      </c>
+      <c r="H23" s="7">
+        <v>784</v>
+      </c>
+      <c r="I23" s="7">
+        <v>0.27902700000000003</v>
+      </c>
+      <c r="J23" s="7">
+        <v>16</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="0"/>
+        <v>1.4400000000001079E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A24" s="8">
+        <v>196384955</v>
+      </c>
+      <c r="B24" s="7">
+        <v>4</v>
+      </c>
+      <c r="C24" s="7">
+        <v>8</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E24" s="7">
+        <v>4.1748502338435296</v>
+      </c>
+      <c r="F24" s="7">
+        <v>0.8911</v>
+      </c>
+      <c r="G24" s="7">
+        <v>1.0014700000000001</v>
+      </c>
+      <c r="H24" s="7">
+        <v>784</v>
+      </c>
+      <c r="I24" s="7">
+        <v>0.27902700000000003</v>
+      </c>
+      <c r="J24" s="7">
+        <v>16</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="0"/>
+        <v>1.4700000000000824E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A25" s="8">
+        <v>197685736</v>
+      </c>
+      <c r="B25" s="7">
+        <v>5</v>
+      </c>
+      <c r="C25" s="7">
+        <v>7</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E25" s="7">
+        <v>4.2025028911564597</v>
+      </c>
+      <c r="F25" s="7">
+        <v>0.94750000000000001</v>
+      </c>
+      <c r="G25" s="7">
+        <v>1.0003200000000001</v>
+      </c>
+      <c r="H25" s="7">
+        <v>784</v>
+      </c>
+      <c r="I25" s="7">
+        <v>0.27902700000000003</v>
+      </c>
+      <c r="J25" s="7">
+        <v>16</v>
+      </c>
+      <c r="K25">
+        <f t="shared" si="0"/>
+        <v>3.2000000000009798E-4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A26" s="8">
+        <v>202160302</v>
+      </c>
+      <c r="B26" s="7">
+        <v>6</v>
+      </c>
+      <c r="C26" s="7">
+        <v>7</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E26" s="7">
+        <v>4.2976254676870704</v>
+      </c>
+      <c r="F26" s="7">
+        <v>0.96409999999999996</v>
+      </c>
+      <c r="G26" s="7">
+        <v>1.00014</v>
+      </c>
+      <c r="H26" s="7">
+        <v>784</v>
+      </c>
+      <c r="I26" s="7">
+        <v>0.27902700000000003</v>
+      </c>
+      <c r="J26" s="7">
+        <v>16</v>
+      </c>
+      <c r="K26">
+        <f t="shared" si="0"/>
+        <v>1.4000000000002899E-4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A27" s="8">
+        <v>203943584</v>
+      </c>
+      <c r="B27" s="7">
+        <v>4</v>
+      </c>
+      <c r="C27" s="7">
+        <v>9</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E27" s="7">
+        <v>4.3355353741496598</v>
+      </c>
+      <c r="F27" s="7">
+        <v>0.88790000000000002</v>
+      </c>
+      <c r="G27" s="7">
+        <v>1.0015099999999999</v>
+      </c>
+      <c r="H27" s="7">
+        <v>784</v>
+      </c>
+      <c r="I27" s="7">
+        <v>0.27902700000000003</v>
+      </c>
+      <c r="J27" s="7">
+        <v>16</v>
+      </c>
+      <c r="K27">
+        <f t="shared" si="0"/>
+        <v>1.5099999999999003E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A28" s="8">
+        <v>206986358</v>
+      </c>
+      <c r="B28" s="7">
+        <v>4</v>
+      </c>
+      <c r="C28" s="7">
+        <v>10</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E28" s="7">
+        <v>4.4002201955782301</v>
+      </c>
+      <c r="F28" s="7">
+        <v>0.89259999999999995</v>
+      </c>
+      <c r="G28" s="7">
+        <v>1.0014099999999999</v>
+      </c>
+      <c r="H28" s="7">
+        <v>784</v>
+      </c>
+      <c r="I28" s="7">
+        <v>0.27902700000000003</v>
+      </c>
+      <c r="J28" s="7">
+        <v>16</v>
+      </c>
+      <c r="K28">
+        <f t="shared" si="0"/>
+        <v>1.4099999999999113E-3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A29" s="8">
+        <v>209428176</v>
+      </c>
+      <c r="B29" s="7">
+        <v>4</v>
+      </c>
+      <c r="C29" s="7">
+        <v>11</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E29" s="7">
+        <v>4.4521295918367301</v>
+      </c>
+      <c r="F29" s="7">
+        <v>0.88980000000000004</v>
+      </c>
+      <c r="G29" s="7">
+        <v>1.00146</v>
+      </c>
+      <c r="H29" s="7">
+        <v>784</v>
+      </c>
+      <c r="I29" s="7">
+        <v>0.27902700000000003</v>
+      </c>
+      <c r="J29" s="7">
+        <v>16</v>
+      </c>
+      <c r="K29">
+        <f t="shared" si="0"/>
+        <v>1.4600000000000168E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A30" s="8">
+        <v>223912136</v>
+      </c>
+      <c r="B30" s="7">
+        <v>5</v>
+      </c>
+      <c r="C30" s="7">
+        <v>8</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E30" s="7">
+        <v>4.7600369047618996</v>
+      </c>
+      <c r="F30" s="7">
+        <v>0.94669999999999999</v>
+      </c>
+      <c r="G30" s="7">
+        <v>1.0003200000000001</v>
+      </c>
+      <c r="H30" s="7">
+        <v>784</v>
+      </c>
+      <c r="I30" s="7">
+        <v>0.27902700000000003</v>
+      </c>
+      <c r="J30" s="7">
+        <v>16</v>
+      </c>
+      <c r="K30">
+        <f t="shared" si="0"/>
+        <v>3.2000000000009798E-4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A31" s="8">
+        <v>238899733</v>
+      </c>
+      <c r="B31" s="7">
+        <v>5</v>
+      </c>
+      <c r="C31" s="7">
+        <v>9</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E31" s="7">
+        <v>5.0786507865646202</v>
+      </c>
+      <c r="F31" s="7">
+        <v>0.94810000000000005</v>
+      </c>
+      <c r="G31" s="7">
+        <v>1.00031</v>
+      </c>
+      <c r="H31" s="7">
+        <v>784</v>
+      </c>
+      <c r="I31" s="7">
+        <v>0.27902700000000003</v>
+      </c>
+      <c r="J31" s="7">
+        <v>16</v>
+      </c>
+      <c r="K31">
+        <f t="shared" si="0"/>
+        <v>3.1000000000003247E-4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A32" s="8">
+        <v>239781384</v>
+      </c>
+      <c r="B32" s="7">
+        <v>6</v>
+      </c>
+      <c r="C32" s="7">
+        <v>8</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E32" s="7">
+        <v>5.09739336734693</v>
+      </c>
+      <c r="F32" s="7">
+        <v>0.97489999999999999</v>
+      </c>
+      <c r="G32" s="7">
+        <v>1.0000800000000001</v>
+      </c>
+      <c r="H32" s="7">
+        <v>784</v>
+      </c>
+      <c r="I32" s="7">
+        <v>0.27902700000000003</v>
+      </c>
+      <c r="J32" s="7">
+        <v>16</v>
+      </c>
+      <c r="K32">
+        <f t="shared" si="0"/>
+        <v>8.0000000000080007E-5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A33" s="8">
+        <v>244538920</v>
+      </c>
+      <c r="B33" s="7">
+        <v>7</v>
+      </c>
+      <c r="C33" s="7">
+        <v>8</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E33" s="7">
+        <v>5.1985314625850298</v>
+      </c>
+      <c r="F33" s="7">
+        <v>0.98240000000000005</v>
+      </c>
+      <c r="G33" s="7">
+        <v>1.00003</v>
+      </c>
+      <c r="H33" s="7">
+        <v>784</v>
+      </c>
+      <c r="I33" s="7">
+        <v>0.27902700000000003</v>
+      </c>
+      <c r="J33" s="7">
+        <v>16</v>
+      </c>
+      <c r="K33">
+        <f t="shared" si="0"/>
+        <v>2.9999999999974492E-5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A34" s="8">
+        <v>246811096</v>
+      </c>
+      <c r="B34" s="7">
+        <v>5</v>
+      </c>
+      <c r="C34" s="7">
+        <v>10</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E34" s="7">
+        <v>5.24683452380952</v>
+      </c>
+      <c r="F34" s="7">
+        <v>0.94550000000000001</v>
+      </c>
+      <c r="G34" s="7">
+        <v>1.0003500000000001</v>
+      </c>
+      <c r="H34" s="7">
+        <v>784</v>
+      </c>
+      <c r="I34" s="7">
+        <v>0.27902700000000003</v>
+      </c>
+      <c r="J34" s="7">
+        <v>16</v>
+      </c>
+      <c r="K34">
+        <f t="shared" si="0"/>
+        <v>3.5000000000007248E-4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A35" s="8">
+        <v>249514760</v>
+      </c>
+      <c r="B35" s="7">
+        <v>5</v>
+      </c>
+      <c r="C35" s="7">
+        <v>11</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E35" s="7">
+        <v>5.3043103741496598</v>
+      </c>
+      <c r="F35" s="7">
+        <v>0.95040000000000002</v>
+      </c>
+      <c r="G35" s="7">
+        <v>1.0002899999999999</v>
+      </c>
+      <c r="H35" s="7">
+        <v>784</v>
+      </c>
+      <c r="I35" s="7">
+        <v>0.27902700000000003</v>
+      </c>
+      <c r="J35" s="7">
+        <v>16</v>
+      </c>
+      <c r="K35">
+        <f t="shared" si="0"/>
+        <v>2.8999999999990145E-4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A36" s="8">
+        <v>266522046</v>
+      </c>
+      <c r="B36" s="7">
+        <v>6</v>
+      </c>
+      <c r="C36" s="7">
+        <v>9</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E36" s="7">
+        <v>5.6658598214285698</v>
+      </c>
+      <c r="F36" s="7">
+        <v>0.97260000000000002</v>
+      </c>
+      <c r="G36" s="7">
+        <v>1.0000800000000001</v>
+      </c>
+      <c r="H36" s="7">
+        <v>784</v>
+      </c>
+      <c r="I36" s="7">
+        <v>0.27902700000000003</v>
+      </c>
+      <c r="J36" s="7">
+        <v>16</v>
+      </c>
+      <c r="K36">
+        <f t="shared" si="0"/>
+        <v>8.0000000000080007E-5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A37" s="8">
+        <v>281634957</v>
+      </c>
+      <c r="B37" s="7">
+        <v>6</v>
+      </c>
+      <c r="C37" s="7">
+        <v>10</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E37" s="7">
+        <v>5.98713769132653</v>
+      </c>
+      <c r="F37" s="7">
+        <v>0.9748</v>
+      </c>
+      <c r="G37" s="7">
+        <v>1.0000800000000001</v>
+      </c>
+      <c r="H37" s="7">
+        <v>784</v>
+      </c>
+      <c r="I37" s="7">
+        <v>0.27902700000000003</v>
+      </c>
+      <c r="J37" s="7">
+        <v>16</v>
+      </c>
+      <c r="K37">
+        <f t="shared" si="0"/>
+        <v>8.0000000000080007E-5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A38" s="8">
+        <v>283002930</v>
+      </c>
+      <c r="B38" s="7">
+        <v>7</v>
+      </c>
+      <c r="C38" s="7">
+        <v>9</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E38" s="7">
+        <v>6.0162187500000002</v>
+      </c>
+      <c r="F38" s="7">
+        <v>0.98760000000000003</v>
+      </c>
+      <c r="G38" s="7">
+        <v>1.0000199999999999</v>
+      </c>
+      <c r="H38" s="7">
+        <v>784</v>
+      </c>
+      <c r="I38" s="7">
+        <v>0.27902700000000003</v>
+      </c>
+      <c r="J38" s="7">
+        <v>16</v>
+      </c>
+      <c r="K38">
+        <f t="shared" si="0"/>
+        <v>1.9999999999908979E-5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A39" s="8">
+        <v>287545342</v>
+      </c>
+      <c r="B39" s="7">
+        <v>8</v>
+      </c>
+      <c r="C39" s="7">
+        <v>9</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E39" s="7">
+        <v>6.1127836309523804</v>
+      </c>
+      <c r="F39" s="7">
+        <v>0.99170000000000003</v>
+      </c>
+      <c r="G39" s="7">
+        <v>1.0000100000000001</v>
+      </c>
+      <c r="H39" s="7">
+        <v>784</v>
+      </c>
+      <c r="I39" s="7">
+        <v>0.27902700000000003</v>
+      </c>
+      <c r="J39" s="7">
+        <v>16</v>
+      </c>
+      <c r="K39">
+        <f t="shared" si="0"/>
+        <v>1.0000000000065512E-5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A40" s="8">
+        <v>289136408</v>
+      </c>
+      <c r="B40" s="7">
+        <v>6</v>
+      </c>
+      <c r="C40" s="7">
+        <v>11</v>
+      </c>
+      <c r="D40" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E40" s="7">
+        <v>6.1466073129251697</v>
+      </c>
+      <c r="F40" s="7">
+        <v>0.97319999999999995</v>
+      </c>
+      <c r="G40" s="7">
+        <v>1.0000899999999999</v>
+      </c>
+      <c r="H40" s="7">
+        <v>784</v>
+      </c>
+      <c r="I40" s="7">
+        <v>0.27902700000000003</v>
+      </c>
+      <c r="J40" s="7">
+        <v>16</v>
+      </c>
+      <c r="K40">
+        <f t="shared" si="0"/>
+        <v>8.9999999999923475E-5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A41" s="8">
+        <v>308827551</v>
+      </c>
+      <c r="B41" s="7">
+        <v>7</v>
+      </c>
+      <c r="C41" s="7">
+        <v>10</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E41" s="7">
+        <v>6.5652115433673401</v>
+      </c>
+      <c r="F41" s="7">
+        <v>0.98699999999999999</v>
+      </c>
+      <c r="G41" s="7">
+        <v>1.0000199999999999</v>
+      </c>
+      <c r="H41" s="7">
+        <v>784</v>
+      </c>
+      <c r="I41" s="7">
+        <v>0.27902700000000003</v>
+      </c>
+      <c r="J41" s="7">
+        <v>16</v>
+      </c>
+      <c r="K41">
+        <f t="shared" si="0"/>
+        <v>1.9999999999908979E-5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A42" s="8">
+        <v>324052638</v>
+      </c>
+      <c r="B42" s="7">
+        <v>7</v>
+      </c>
+      <c r="C42" s="7">
+        <v>11</v>
+      </c>
+      <c r="D42" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E42" s="7">
+        <v>6.8888741071428496</v>
+      </c>
+      <c r="F42" s="7">
+        <v>0.98619999999999997</v>
+      </c>
+      <c r="G42" s="7">
+        <v>1.0000199999999999</v>
+      </c>
+      <c r="H42" s="7">
+        <v>784</v>
+      </c>
+      <c r="I42" s="7">
+        <v>0.27902700000000003</v>
+      </c>
+      <c r="J42" s="7">
+        <v>16</v>
+      </c>
+      <c r="K42">
+        <f t="shared" si="0"/>
+        <v>1.9999999999908979E-5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A43" s="8">
+        <v>324842292</v>
+      </c>
+      <c r="B43" s="7">
+        <v>8</v>
+      </c>
+      <c r="C43" s="7">
+        <v>10</v>
+      </c>
+      <c r="D43" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E43" s="7">
+        <v>6.9056609693877498</v>
+      </c>
+      <c r="F43" s="7">
+        <v>0.99390000000000001</v>
+      </c>
+      <c r="G43" s="7">
+        <v>1</v>
+      </c>
+      <c r="H43" s="7">
+        <v>784</v>
+      </c>
+      <c r="I43" s="7">
+        <v>0.27902700000000003</v>
+      </c>
+      <c r="J43" s="7">
+        <v>16</v>
+      </c>
+      <c r="K43">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A44" s="8">
+        <v>329684062</v>
+      </c>
+      <c r="B44" s="7">
+        <v>9</v>
+      </c>
+      <c r="C44" s="7">
+        <v>10</v>
+      </c>
+      <c r="D44" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E44" s="7">
+        <v>7.0085897534013597</v>
+      </c>
+      <c r="F44" s="7">
+        <v>0.99590000000000001</v>
+      </c>
+      <c r="G44" s="7">
+        <v>1</v>
+      </c>
+      <c r="H44" s="7">
+        <v>784</v>
+      </c>
+      <c r="I44" s="7">
+        <v>0.27902700000000003</v>
+      </c>
+      <c r="J44" s="7">
+        <v>16</v>
+      </c>
+      <c r="K44">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A45" s="8">
+        <v>350985679</v>
+      </c>
+      <c r="B45" s="7">
+        <v>8</v>
+      </c>
+      <c r="C45" s="7">
+        <v>11</v>
+      </c>
+      <c r="D45" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E45" s="7">
+        <v>7.4614302508503396</v>
+      </c>
+      <c r="F45" s="7">
+        <v>0.99399999999999999</v>
+      </c>
+      <c r="G45" s="7">
+        <v>1</v>
+      </c>
+      <c r="H45" s="7">
+        <v>784</v>
+      </c>
+      <c r="I45" s="7">
+        <v>0.27902700000000003</v>
+      </c>
+      <c r="J45" s="7">
+        <v>16</v>
+      </c>
+      <c r="K45">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A46" s="8">
+        <v>368193700</v>
+      </c>
+      <c r="B46" s="7">
+        <v>9</v>
+      </c>
+      <c r="C46" s="7">
+        <v>11</v>
+      </c>
+      <c r="D46" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E46" s="7">
+        <v>7.8272470238095204</v>
+      </c>
+      <c r="F46" s="7">
+        <v>0.99650000000000005</v>
+      </c>
+      <c r="G46" s="7">
+        <v>1</v>
+      </c>
+      <c r="H46" s="7">
+        <v>784</v>
+      </c>
+      <c r="I46" s="7">
+        <v>0.27902700000000003</v>
+      </c>
+      <c r="J46" s="7">
+        <v>16</v>
+      </c>
+      <c r="K46">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A47" s="8">
+        <v>372461169</v>
+      </c>
+      <c r="B47" s="7">
+        <v>10</v>
+      </c>
+      <c r="C47" s="7">
+        <v>11</v>
+      </c>
+      <c r="D47" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E47" s="7">
+        <v>7.91796702806122</v>
+      </c>
+      <c r="F47" s="7">
+        <v>0.99880000000000002</v>
+      </c>
+      <c r="G47" s="7">
+        <v>1</v>
+      </c>
+      <c r="H47" s="7">
+        <v>784</v>
+      </c>
+      <c r="I47" s="7">
+        <v>0.27902700000000003</v>
+      </c>
+      <c r="J47" s="7">
+        <v>16</v>
+      </c>
+      <c r="K47">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A3:K47">
+    <sortCondition ref="E3:E47"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{444CA896-9D71-4C22-911A-61F6C9433AC9}">
+  <dimension ref="A1:L2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A2" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:F32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+    </row>
+    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+    </row>
+    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+    </row>
+    <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+    </row>
+    <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+    </row>
+    <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+    </row>
+    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+    </row>
+    <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+    </row>
+    <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+    </row>
+    <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+    </row>
+    <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+    </row>
+    <row r="14" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+    </row>
+    <row r="15" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+    </row>
+    <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+    </row>
+    <row r="17" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+    </row>
+    <row r="18" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+    </row>
+    <row r="19" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+    </row>
+    <row r="20" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+    </row>
+    <row r="21" spans="1:6" ht="12.75" x14ac:dyDescent="0.35">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+    </row>
+    <row r="22" spans="1:6" ht="12.75" x14ac:dyDescent="0.35">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+    </row>
+    <row r="23" spans="1:6" ht="12.75" x14ac:dyDescent="0.35">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+    </row>
+    <row r="24" spans="1:6" ht="12.75" x14ac:dyDescent="0.35">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+    </row>
+    <row r="25" spans="1:6" ht="12.75" x14ac:dyDescent="0.35">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+    </row>
+    <row r="26" spans="1:6" ht="12.75" x14ac:dyDescent="0.35">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+    </row>
+    <row r="27" spans="1:6" ht="12.75" x14ac:dyDescent="0.35">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+    </row>
+    <row r="28" spans="1:6" ht="12.75" x14ac:dyDescent="0.35">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+    </row>
+    <row r="29" spans="1:6" ht="12.75" x14ac:dyDescent="0.35">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+    </row>
+    <row r="30" spans="1:6" ht="12.75" x14ac:dyDescent="0.35">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+    </row>
+    <row r="31" spans="1:6" ht="12.75" x14ac:dyDescent="0.35">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+    </row>
+    <row r="32" spans="1:6" ht="12.75" x14ac:dyDescent="0.35">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>